--- a/Temp Tracker.xlsx
+++ b/Temp Tracker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,97 +468,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1579.945565392495</v>
+        <v>2878.272251966178</v>
       </c>
       <c r="D2" t="n">
-        <v>0.956189066452705</v>
+        <v>0.2617859242059239</v>
       </c>
       <c r="E2" t="n">
-        <v>31.42524345580649</v>
+        <v>117.5134185401911</v>
       </c>
       <c r="F2" t="n">
-        <v>3.019353509616454</v>
+        <v>1.549896919695778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DRREDDY</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2946.116059812382</v>
+        <v>4605.920367904588</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4827597126282328</v>
+        <v>-1.905733776342053</v>
       </c>
       <c r="E3" t="n">
-        <v>24.6520157017153</v>
+        <v>109.6752032974653</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.168608529982918</v>
+        <v>1.424742982140974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1163.853297221585</v>
+        <v>958.0567806018189</v>
       </c>
       <c r="D4" t="n">
-        <v>5.403387931623008</v>
+        <v>15.19569710239065</v>
       </c>
       <c r="E4" t="n">
-        <v>42.2422204471296</v>
+        <v>102.0297727898654</v>
       </c>
       <c r="F4" t="n">
-        <v>1.612133524156182</v>
+        <v>1.07802968311221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>BAJAJFINSV</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>AXISBANK</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>BAJAJFINSV</t>
-        </is>
-      </c>
       <c r="C5" t="n">
-        <v>154.0657393201584</v>
+        <v>420.7436140178443</v>
       </c>
       <c r="D5" t="n">
-        <v>1.390372572745706</v>
+        <v>0.4091192781425708</v>
       </c>
       <c r="E5" t="n">
-        <v>14.71630162841377</v>
+        <v>23.04107520422106</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5596547432966561</v>
+        <v>-0.5229573497993084</v>
       </c>
     </row>
     <row r="6">
@@ -569,284 +569,236 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2369.706910357537</v>
+        <v>-459.7578101230338</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6355379279286225</v>
+        <v>1.867569190356453</v>
       </c>
       <c r="E6" t="n">
-        <v>7.570848749731876</v>
+        <v>38.71291265448101</v>
       </c>
       <c r="F6" t="n">
-        <v>1.388963281992739</v>
+        <v>-0.4534528923041337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>SBILIFE</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>AXISBANK</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HDFCLIFE</t>
-        </is>
-      </c>
       <c r="C7" t="n">
-        <v>-277.0028586108304</v>
+        <v>804.3338874705933</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8423980849602806</v>
+        <v>0.2001189997585957</v>
       </c>
       <c r="E7" t="n">
-        <v>7.129022068128556</v>
+        <v>28.56372719292143</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4344219995067286</v>
+        <v>-1.43696853566495</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>HDFCLIFE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>298.1661338632038</v>
+        <v>168.4174274182335</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6406882616254993</v>
+        <v>0.06155855104482533</v>
       </c>
       <c r="E8" t="n">
-        <v>4.092943074091897</v>
+        <v>16.93920884949063</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06898459711995081</v>
+        <v>0.3507362537864348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>151.8709452704586</v>
+        <v>76.21872002806049</v>
       </c>
       <c r="D9" t="n">
-        <v>1.140460481166222</v>
+        <v>0.9167114121802378</v>
       </c>
       <c r="E9" t="n">
-        <v>6.995336023843743</v>
+        <v>53.70152949866905</v>
       </c>
       <c r="F9" t="n">
-        <v>1.166835124606835</v>
+        <v>-0.5600672552920685</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>155.4437557607331</v>
+        <v>1282.084947990787</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4437285030448366</v>
+        <v>0.08946557919714149</v>
       </c>
       <c r="E10" t="n">
-        <v>4.576147703888909</v>
+        <v>21.63067697746487</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1926256160783506</v>
+        <v>0.7891133471022339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>GRASIM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>223.6892309882805</v>
+        <v>5013.201949446426</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5756195743907979</v>
+        <v>2.400834232202959</v>
       </c>
       <c r="E11" t="n">
-        <v>74.46797272720336</v>
+        <v>165.4562108055752</v>
       </c>
       <c r="F11" t="n">
-        <v>1.204072667749748</v>
+        <v>-1.653978298222454</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>HCLTECH</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>445.9800744996601</v>
+        <v>-34.25441203722949</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3310539278548681</v>
+        <v>0.4068631682950357</v>
       </c>
       <c r="E12" t="n">
-        <v>5.103151537739606</v>
+        <v>32.11735006888292</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2564106620009665</v>
+        <v>-0.5291834658535893</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20.03777948493689</v>
+        <v>819.3581776773208</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4094323913950776</v>
+        <v>0.5298692392877573</v>
       </c>
       <c r="E13" t="n">
-        <v>16.82857829491588</v>
+        <v>65.39332369006297</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6795672697731057</v>
+        <v>-1.467441784457967</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>TECHM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1002.338432521664</v>
+        <v>473.7396946129147</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3596161140377694</v>
+        <v>0.2165479856095371</v>
       </c>
       <c r="E14" t="n">
-        <v>8.975060457974415</v>
+        <v>38.14666405950345</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2692448687068114</v>
+        <v>-1.516098396002564</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>277.7631102175274</v>
+        <v>107.2499380671102</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5157009790771085</v>
+        <v>0.09498345850148404</v>
       </c>
       <c r="E15" t="n">
-        <v>3.804700708179993</v>
+        <v>6.889881063654225</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.267524999819706</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>INFY</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TCS</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1029.460045077287</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.795179882478392</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9.753921654746698</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-2.076870260824293</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>TECHM</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>INFY</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>827.9624425265783</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.5686833388165354</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.9680556572456</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.2951638026242753</v>
+        <v>-1.369118963298494</v>
       </c>
     </row>
   </sheetData>
